--- a/assets/conversation/Present-Simple.xlsx
+++ b/assets/conversation/Present-Simple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F5158F-1264-4F6E-ADB2-215942B2D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E662AB5F-CF85-4BA5-8E27-80D91B0E0438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A68976E-3F78-4E28-99CC-DAA0089A5528}"/>
   </bookViews>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A000652-9774-4555-A9B3-9F6FAAF69165}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
